--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf7-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf7-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Gdf7</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.076196</v>
+        <v>0.02913733333333333</v>
       </c>
       <c r="H2">
-        <v>0.228588</v>
+        <v>0.087412</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N2">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O2">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P2">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q2">
-        <v>0.43604418234</v>
+        <v>0.1842113883537778</v>
       </c>
       <c r="R2">
-        <v>3.924397641060001</v>
+        <v>1.657902495184</v>
       </c>
       <c r="S2">
-        <v>0.09021166427595352</v>
+        <v>0.02474241303690144</v>
       </c>
       <c r="T2">
-        <v>0.09021166427595353</v>
+        <v>0.02474241303690145</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.076196</v>
+        <v>0.02913733333333333</v>
       </c>
       <c r="H3">
-        <v>0.228588</v>
+        <v>0.087412</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>123.860985</v>
       </c>
       <c r="O3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q3">
-        <v>3.14590387102</v>
+        <v>1.202992935646667</v>
       </c>
       <c r="R3">
-        <v>28.31313483918</v>
+        <v>10.82693642082</v>
       </c>
       <c r="S3">
-        <v>0.6508451100847196</v>
+        <v>0.1615803906601088</v>
       </c>
       <c r="T3">
-        <v>0.6508451100847196</v>
+        <v>0.1615803906601088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.076196</v>
+        <v>0.02913733333333333</v>
       </c>
       <c r="H4">
-        <v>0.228588</v>
+        <v>0.087412</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N4">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q4">
-        <v>1.246885948233333</v>
+        <v>0.8080490764782223</v>
       </c>
       <c r="R4">
-        <v>11.2219735341</v>
+        <v>7.272441688304001</v>
       </c>
       <c r="S4">
-        <v>0.2579638970271175</v>
+        <v>0.1085333766982649</v>
       </c>
       <c r="T4">
-        <v>0.2579638970271175</v>
+        <v>0.1085333766982649</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +723,294 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.076196</v>
+        <v>0.02913733333333333</v>
       </c>
       <c r="H5">
-        <v>0.228588</v>
+        <v>0.087412</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.096171666666667</v>
+      </c>
+      <c r="N5">
+        <v>3.288515</v>
+      </c>
+      <c r="O5">
+        <v>0.01434070616847367</v>
+      </c>
+      <c r="P5">
+        <v>0.01434070616847367</v>
+      </c>
+      <c r="Q5">
+        <v>0.03193951924222223</v>
+      </c>
+      <c r="R5">
+        <v>0.28745567318</v>
+      </c>
+      <c r="S5">
+        <v>0.004289967001244401</v>
+      </c>
+      <c r="T5">
+        <v>0.004289967001244401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M5">
-        <v>0.06212466666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.186374</v>
-      </c>
-      <c r="O5">
-        <v>0.000979328612209321</v>
-      </c>
-      <c r="P5">
-        <v>0.000979328612209321</v>
-      </c>
-      <c r="Q5">
-        <v>0.004733651101333333</v>
-      </c>
-      <c r="R5">
-        <v>0.042602859912</v>
-      </c>
-      <c r="S5">
-        <v>0.000979328612209321</v>
-      </c>
-      <c r="T5">
-        <v>0.000979328612209321</v>
+      <c r="G6">
+        <v>0.06826433333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.204793</v>
+      </c>
+      <c r="I6">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="J6">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>6.322177333333333</v>
+      </c>
+      <c r="N6">
+        <v>18.966532</v>
+      </c>
+      <c r="O6">
+        <v>0.08271011762055308</v>
+      </c>
+      <c r="P6">
+        <v>0.08271011762055309</v>
+      </c>
+      <c r="Q6">
+        <v>0.4315792208751111</v>
+      </c>
+      <c r="R6">
+        <v>3.884212987876</v>
+      </c>
+      <c r="S6">
+        <v>0.05796770458365164</v>
+      </c>
+      <c r="T6">
+        <v>0.05796770458365165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.06826433333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.204793</v>
+      </c>
+      <c r="I7">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="J7">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>41.286995</v>
+      </c>
+      <c r="N7">
+        <v>123.860985</v>
+      </c>
+      <c r="O7">
+        <v>0.5401386314560596</v>
+      </c>
+      <c r="P7">
+        <v>0.5401386314560597</v>
+      </c>
+      <c r="Q7">
+        <v>2.818429189011666</v>
+      </c>
+      <c r="R7">
+        <v>25.365862701105</v>
+      </c>
+      <c r="S7">
+        <v>0.3785582407959508</v>
+      </c>
+      <c r="T7">
+        <v>0.3785582407959509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.06826433333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.204793</v>
+      </c>
+      <c r="I8">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="J8">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>27.73243066666667</v>
+      </c>
+      <c r="N8">
+        <v>83.197292</v>
+      </c>
+      <c r="O8">
+        <v>0.3628105447549136</v>
+      </c>
+      <c r="P8">
+        <v>0.3628105447549136</v>
+      </c>
+      <c r="Q8">
+        <v>1.893135891172889</v>
+      </c>
+      <c r="R8">
+        <v>17.038223020556</v>
+      </c>
+      <c r="S8">
+        <v>0.2542771680566486</v>
+      </c>
+      <c r="T8">
+        <v>0.2542771680566486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.06826433333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.204793</v>
+      </c>
+      <c r="I9">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="J9">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.096171666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.288515</v>
+      </c>
+      <c r="O9">
+        <v>0.01434070616847367</v>
+      </c>
+      <c r="P9">
+        <v>0.01434070616847367</v>
+      </c>
+      <c r="Q9">
+        <v>0.0748294280438889</v>
+      </c>
+      <c r="R9">
+        <v>0.6734648523950001</v>
+      </c>
+      <c r="S9">
+        <v>0.01005073916722926</v>
+      </c>
+      <c r="T9">
+        <v>0.01005073916722926</v>
       </c>
     </row>
   </sheetData>
